--- a/src/test/resources/io.dingodb.test/testdata/btreecases/prepareStatement/sql_ps_dml_cases_btree.xlsx
+++ b/src/test/resources/io.dingodb.test/testdata/btreecases/prepareStatement/sql_ps_dml_cases_btree.xlsx
@@ -580,13 +580,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
       <selection activeCell="M5" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="12.25" style="1" customWidth="1"/>
+    <col min="1" max="1" width="18.375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="10.75" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="18.375" style="1" bestFit="1" customWidth="1"/>
